--- a/data/Contact_Recreation/LakeWilliam_e66a7ded34.xlsx
+++ b/data/Contact_Recreation/LakeWilliam_e66a7ded34.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -609,7 +609,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -648,7 +648,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -687,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -726,7 +726,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -804,7 +804,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -921,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -960,7 +960,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -999,7 +999,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1467,7 +1467,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2325,7 +2325,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2520,7 +2520,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2598,7 +2598,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">

--- a/data/Contact_Recreation/LakeWilliam_e66a7ded34.xlsx
+++ b/data/Contact_Recreation/LakeWilliam_e66a7ded34.xlsx
@@ -49,79 +49,79 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>&lt;9</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>3080</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>&lt;10</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>279</t>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>&lt;9.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>3080.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>231.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>&lt;10.0</t>
+  </si>
+  <si>
+    <t>171.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>185.0</t>
+  </si>
+  <si>
+    <t>228.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
   </si>
   <si>
     <t>Science - Contact Recreation</t>
